--- a/predict_borehole.xlsx
+++ b/predict_borehole.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,29 +405,29 @@
         <v>0.02</v>
       </c>
       <c r="C2">
-        <v>11.3</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>11.32</v>
+        <v>7.81</v>
       </c>
       <c r="C3">
-        <v>16.04</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>16.06</v>
+        <v>5.15</v>
       </c>
       <c r="C4">
-        <v>20.23</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -435,87 +435,87 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>21.66</v>
+        <v>12.89</v>
       </c>
       <c r="C5">
-        <v>28.18</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>20.25</v>
+        <v>11.32</v>
       </c>
       <c r="C6">
-        <v>21.1</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>21.11</v>
+        <v>22.17</v>
       </c>
       <c r="C7">
-        <v>21.65</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>28.19</v>
+        <v>21.35</v>
       </c>
       <c r="C8">
-        <v>30.43</v>
+        <v>22.15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>34.38</v>
+        <v>23.91</v>
       </c>
       <c r="C9">
-        <v>38.12</v>
+        <v>25.57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>30.45</v>
+        <v>25.58</v>
       </c>
       <c r="C10">
-        <v>31.14</v>
+        <v>26.54</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>31.15</v>
+        <v>26.56</v>
       </c>
       <c r="C11">
-        <v>34.38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>38.14</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>39.57</v>
+        <v>31.87</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -523,274 +523,274 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>39.59</v>
+        <v>32.75</v>
       </c>
       <c r="C13">
-        <v>41.85</v>
+        <v>34.01</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>42.49</v>
+        <v>31.89</v>
       </c>
       <c r="C14">
-        <v>45.36</v>
+        <v>32.74</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>41.87</v>
+        <v>34.03</v>
       </c>
       <c r="C15">
-        <v>42.49</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>45.38</v>
+        <v>53.21</v>
       </c>
       <c r="C16">
-        <v>48.34</v>
+        <v>54.36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>48.36</v>
+        <v>54.38</v>
       </c>
       <c r="C17">
-        <v>49.75</v>
+        <v>56.36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>49.76</v>
+        <v>56.38</v>
       </c>
       <c r="C18">
-        <v>51.57</v>
+        <v>58.68</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>51.59</v>
+        <v>58.69</v>
       </c>
       <c r="C19">
-        <v>55.55</v>
+        <v>60.63</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>55.57</v>
+        <v>60.65</v>
       </c>
       <c r="C20">
-        <v>57.94</v>
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>57.94</v>
+        <v>63.52</v>
       </c>
       <c r="C21">
-        <v>58.33</v>
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>60.01</v>
+        <v>66.47</v>
       </c>
       <c r="C22">
-        <v>60.84</v>
+        <v>68.54000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>60.84</v>
+        <v>64.42</v>
       </c>
       <c r="C23">
-        <v>62.09</v>
+        <v>65.09999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>62.09</v>
+        <v>65.11</v>
       </c>
       <c r="C24">
-        <v>62.98</v>
+        <v>66.45999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>63.48</v>
+        <v>68.56</v>
       </c>
       <c r="C25">
-        <v>68.44</v>
+        <v>70.42</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>62.22</v>
+        <v>70.42</v>
       </c>
       <c r="C26">
-        <v>63.47</v>
+        <v>72.65000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27">
-        <v>68.45</v>
+        <v>72.67</v>
       </c>
       <c r="C27">
-        <v>71.56999999999999</v>
+        <v>76.67</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>71.59</v>
+        <v>76.69</v>
       </c>
       <c r="C28">
-        <v>76.27</v>
+        <v>79.87</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B29">
-        <v>76.29000000000001</v>
+        <v>81.13</v>
       </c>
       <c r="C29">
-        <v>79.95</v>
+        <v>82.81999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>79.95999999999999</v>
+        <v>79.89</v>
       </c>
       <c r="C30">
-        <v>81.66</v>
+        <v>81.12</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>87.76000000000001</v>
+        <v>82.84</v>
       </c>
       <c r="C31">
-        <v>89.44</v>
+        <v>84.58</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>86.98999999999999</v>
+        <v>83.73</v>
       </c>
       <c r="C32">
-        <v>87.76000000000001</v>
+        <v>84.58</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B33">
-        <v>89.89</v>
+        <v>87.36</v>
       </c>
       <c r="C33">
-        <v>92.05</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34">
-        <v>89.45999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="C34">
-        <v>89.89</v>
+        <v>85.34</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35">
-        <v>92.06</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="C35">
-        <v>92.81</v>
+        <v>87.34999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B36">
-        <v>92.81999999999999</v>
+        <v>89.31</v>
       </c>
       <c r="C36">
-        <v>97.84</v>
+        <v>90.66</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <v>97.84</v>
+        <v>90.68000000000001</v>
       </c>
       <c r="C37">
-        <v>99.27</v>
+        <v>95.51000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -798,10 +798,43 @@
         <v>3</v>
       </c>
       <c r="B38">
-        <v>99.28</v>
+        <v>95.52</v>
       </c>
       <c r="C38">
-        <v>100.63</v>
+        <v>96.34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>96.34999999999999</v>
+      </c>
+      <c r="C39">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>97.70999999999999</v>
+      </c>
+      <c r="C40">
+        <v>99.08</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>99.09</v>
+      </c>
+      <c r="C41">
+        <v>100.47</v>
       </c>
     </row>
   </sheetData>

--- a/predict_borehole.xlsx
+++ b/predict_borehole.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,18 +405,18 @@
         <v>0.02</v>
       </c>
       <c r="C2">
-        <v>5.14</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>7.81</v>
+        <v>4.04</v>
       </c>
       <c r="C3">
-        <v>11.3</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -424,43 +424,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.15</v>
+        <v>2.04</v>
       </c>
       <c r="C4">
-        <v>7.8</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>12.89</v>
+        <v>14.61</v>
       </c>
       <c r="C5">
-        <v>21.33</v>
+        <v>18.51</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>11.32</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>12.88</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>22.17</v>
+        <v>18.52</v>
       </c>
       <c r="C7">
-        <v>23.89</v>
+        <v>28.42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -468,10 +468,10 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>21.35</v>
+        <v>28.43</v>
       </c>
       <c r="C8">
-        <v>22.15</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -479,76 +479,76 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>23.91</v>
+        <v>31.18</v>
       </c>
       <c r="C9">
-        <v>25.57</v>
+        <v>37.64</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>25.58</v>
+        <v>29.82</v>
       </c>
       <c r="C10">
-        <v>26.54</v>
+        <v>31.17</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>26.56</v>
+        <v>37.66</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>43.31</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>45.66</v>
       </c>
       <c r="C12">
-        <v>31.87</v>
+        <v>49.02</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>32.75</v>
+        <v>43.33</v>
       </c>
       <c r="C13">
-        <v>34.01</v>
+        <v>45.65</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>31.89</v>
+        <v>49.04</v>
       </c>
       <c r="C14">
-        <v>32.74</v>
+        <v>50.89</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>34.03</v>
+        <v>50.91</v>
       </c>
       <c r="C15">
-        <v>53.2</v>
+        <v>55.72</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -556,109 +556,109 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>53.21</v>
+        <v>55.73</v>
       </c>
       <c r="C16">
-        <v>54.36</v>
+        <v>56.31</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>54.38</v>
+        <v>56.32</v>
       </c>
       <c r="C17">
-        <v>56.36</v>
+        <v>58.06</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>56.38</v>
+        <v>58.07</v>
       </c>
       <c r="C18">
-        <v>58.68</v>
+        <v>60.73</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>58.69</v>
+        <v>60.74</v>
       </c>
       <c r="C19">
-        <v>60.63</v>
+        <v>61.38</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>60.65</v>
+        <v>65.23</v>
       </c>
       <c r="C20">
-        <v>64.40000000000001</v>
+        <v>67.67</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>63.52</v>
+        <v>61.4</v>
       </c>
       <c r="C21">
-        <v>64.40000000000001</v>
+        <v>64.14</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22">
-        <v>66.47</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="C22">
-        <v>68.54000000000001</v>
+        <v>65.22</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>64.42</v>
+        <v>67.69</v>
       </c>
       <c r="C23">
-        <v>65.09999999999999</v>
+        <v>69.84999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>65.11</v>
+        <v>69.87</v>
       </c>
       <c r="C24">
-        <v>66.45999999999999</v>
+        <v>74.36</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>68.56</v>
+        <v>74.37</v>
       </c>
       <c r="C25">
-        <v>70.42</v>
+        <v>76.02</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -666,175 +666,153 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>70.42</v>
+        <v>76.03</v>
       </c>
       <c r="C26">
-        <v>72.65000000000001</v>
+        <v>77.08</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>72.67</v>
+        <v>77.09</v>
       </c>
       <c r="C27">
-        <v>76.67</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>76.69</v>
+        <v>77.79000000000001</v>
       </c>
       <c r="C28">
-        <v>79.87</v>
+        <v>80.42</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>81.13</v>
+        <v>80.43000000000001</v>
       </c>
       <c r="C29">
-        <v>82.81999999999999</v>
+        <v>80.98999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30">
-        <v>79.89</v>
+        <v>83.15000000000001</v>
       </c>
       <c r="C30">
-        <v>81.12</v>
+        <v>86.03</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>82.84</v>
+        <v>84.58</v>
       </c>
       <c r="C31">
-        <v>84.58</v>
+        <v>86.03</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32">
-        <v>83.73</v>
+        <v>88.63</v>
       </c>
       <c r="C32">
-        <v>84.58</v>
+        <v>90.45999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>87.36</v>
+        <v>86.05</v>
       </c>
       <c r="C33">
-        <v>89.3</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B34">
-        <v>84.59999999999999</v>
+        <v>87.81</v>
       </c>
       <c r="C34">
-        <v>85.34</v>
+        <v>88.62</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B35">
-        <v>85.34999999999999</v>
+        <v>90.47</v>
       </c>
       <c r="C35">
-        <v>87.34999999999999</v>
+        <v>92.83</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>89.31</v>
+        <v>94.91</v>
       </c>
       <c r="C36">
-        <v>90.66</v>
+        <v>97.84</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>90.68000000000001</v>
+        <v>92.84999999999999</v>
       </c>
       <c r="C37">
-        <v>95.51000000000001</v>
+        <v>94.90000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B38">
-        <v>95.52</v>
+        <v>97.84999999999999</v>
       </c>
       <c r="C38">
-        <v>96.34</v>
+        <v>99.26000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>96.34999999999999</v>
+        <v>99.27</v>
       </c>
       <c r="C39">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
-        <v>2</v>
-      </c>
-      <c r="B40">
-        <v>97.70999999999999</v>
-      </c>
-      <c r="C40">
-        <v>99.08</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
-        <v>4</v>
-      </c>
-      <c r="B41">
-        <v>99.09</v>
-      </c>
-      <c r="C41">
-        <v>100.47</v>
+        <v>100.7</v>
       </c>
     </row>
   </sheetData>
